--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="832">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="832">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30639,7 +30639,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30657,7 +30657,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30729,7 +30729,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30758,7 +30758,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>90</v>
@@ -30773,7 +30773,7 @@
         <v>90</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>90</v>
@@ -32049,10 +32049,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32067,7 +32067,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32079,7 +32079,7 @@
         <v>90</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>90</v>
@@ -32124,10 +32124,10 @@
         <v>90</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>90</v>
@@ -32136,7 +32136,7 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32620,13 +32620,13 @@
         <v>90</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>90</v>
@@ -32656,13 +32656,13 @@
         <v>90</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32677,7 +32677,7 @@
         <v>90</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Y19" s="5" t="s">
         <v>90</v>
@@ -32707,10 +32707,10 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>90</v>
@@ -32736,13 +32736,13 @@
         <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>90</v>
@@ -32754,25 +32754,25 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>90</v>
@@ -32781,10 +32781,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32793,7 +32793,7 @@
         <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>90</v>
@@ -32808,16 +32808,16 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="AG20" s="5" t="s">
         <v>90</v>
@@ -32826,7 +32826,7 @@
         <v>90</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -32965,7 +32965,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -32977,7 +32977,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33019,7 +33019,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33034,7 +33034,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33049,7 +33049,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33138,7 +33138,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33319,7 +33319,7 @@
         <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
@@ -33328,34 +33328,34 @@
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
@@ -33364,7 +33364,7 @@
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33376,7 +33376,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33400,10 +33400,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33412,10 +33412,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26">
@@ -33429,7 +33429,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33495,10 +33495,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33664,43 +33664,43 @@
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
@@ -33712,7 +33712,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33721,7 +33721,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33733,13 +33733,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33748,13 +33748,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -34090,10 +34090,10 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="AG31" s="5" t="s">
         <v>90</v>
@@ -34685,7 +34685,7 @@
         <v>90</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>90</v>
@@ -34931,115 +34931,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40">
@@ -35047,115 +35047,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35163,115 +35163,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>275</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>416</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>452</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>484</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>508</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>553</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>577</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>601</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>630</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>667</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>703</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>739</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>758</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>796</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42">
